--- a/GOMB_GenFundRev.xlsx
+++ b/GOMB_GenFundRev.xlsx
@@ -1,51 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Interns-Fellowships\Alexis 2020\GDP Project\GDP Data Vis\IL-Budget-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5344EC1D-AC1E-40B8-80CC-94A08FBD80D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62F4663-CE07-4AA8-A414-F3F1CAE0D5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="GOMB_GenFundRevenue" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>V6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
   <si>
     <t/>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -55,9 +34,6 @@
     <t>Projected</t>
   </si>
   <si>
-    <t>($ millions)</t>
-  </si>
-  <si>
     <t>FY 2017</t>
   </si>
   <si>
@@ -395,13 +371,16 @@
   </si>
   <si>
     <t>38,903</t>
+  </si>
+  <si>
+    <t>Source  ($ millions)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -409,16 +388,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -426,12 +419,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,637 +743,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D21" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
       <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D29" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>107</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D30" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E29" t="s">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F29" t="s">
+      <c r="D31" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E31" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="F31" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>